--- a/Defaults/p10-2024.xlsx
+++ b/Defaults/p10-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya.shatalov\Desktop\Data\GIS\Toolboxex\Defaults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925855CC-4162-4062-B3CD-88FF0AC74A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C319EB-100C-413F-BC7A-AAA01F052812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22562" uniqueCount="2817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22563" uniqueCount="2817">
   <si>
     <t>Layer</t>
   </si>
@@ -8839,8 +8839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F99B37A-B714-4679-B3FC-AE5B06855E12}">
   <dimension ref="A1:J1581"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="B250" sqref="B250"/>
+    <sheetView tabSelected="1" topLeftCell="A1528" workbookViewId="0">
+      <selection activeCell="D1559" sqref="D1559"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44916,7 +44916,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="1553" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1553" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1553" s="1" t="s">
         <v>362</v>
       </c>
@@ -44942,7 +44942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1554" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1554" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1554" s="1" t="s">
         <v>363</v>
       </c>
@@ -44962,7 +44962,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="1555" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1555" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1555" s="1" t="s">
         <v>363</v>
       </c>
@@ -44985,7 +44985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1556" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1556" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1556" s="1" t="s">
         <v>363</v>
       </c>
@@ -45011,7 +45011,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="1557" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1557" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1557" s="1" t="s">
         <v>363</v>
       </c>
@@ -45031,27 +45031,33 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="1558" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1558" s="1" t="s">
+    <row r="1558" spans="1:10" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1558" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B1558" t="s">
+      <c r="B1558" s="6" t="s">
         <v>1478</v>
       </c>
-      <c r="C1558" t="s">
+      <c r="C1558" s="6" t="s">
         <v>1573</v>
       </c>
-      <c r="D1558" t="s">
-        <v>1381</v>
-      </c>
-      <c r="E1558" t="s">
+      <c r="D1558" s="6" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E1558" s="6" t="s">
         <v>1390</v>
       </c>
-      <c r="G1558" t="s">
-        <v>2660</v>
-      </c>
-    </row>
-    <row r="1559" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G1558" s="6" t="s">
+        <v>2660</v>
+      </c>
+      <c r="H1558" s="6">
+        <v>1</v>
+      </c>
+      <c r="J1558" s="6" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1559" s="1" t="s">
         <v>363</v>
       </c>
@@ -45071,7 +45077,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="1560" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1560" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1560" s="1" t="s">
         <v>363</v>
       </c>
@@ -45091,7 +45097,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="1561" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1561" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1561" s="1" t="s">
         <v>363</v>
       </c>
@@ -45111,7 +45117,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="1562" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1562" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1562" s="1" t="s">
         <v>363</v>
       </c>
@@ -45131,7 +45137,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="1563" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1563" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1563" s="1" t="s">
         <v>363</v>
       </c>
@@ -45157,7 +45163,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="1564" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1564" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1564" s="1" t="s">
         <v>363</v>
       </c>
@@ -45180,7 +45186,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="1565" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1565" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1565" s="1" t="s">
         <v>363</v>
       </c>
@@ -45206,7 +45212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1566" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1566" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1566" s="1" t="s">
         <v>2576</v>
       </c>
@@ -45226,7 +45232,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="1567" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1567" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1567" s="1" t="s">
         <v>2576</v>
       </c>
@@ -45249,7 +45255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1568" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1568" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1568" s="1" t="s">
         <v>2576</v>
       </c>
@@ -45550,8 +45556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C550"/>
   <sheetViews>
-    <sheetView topLeftCell="A405" workbookViewId="0">
-      <selection activeCell="A431" sqref="A431:C435"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Defaults/p10-2024.xlsx
+++ b/Defaults/p10-2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya.shatalov\Desktop\Data\GIS\Toolboxex\Defaults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C319EB-100C-413F-BC7A-AAA01F052812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A269B6C-8814-442B-B75B-E1C432823BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Общий" sheetId="7" r:id="rId1"/>
@@ -8839,8 +8839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F99B37A-B714-4679-B3FC-AE5B06855E12}">
   <dimension ref="A1:J1581"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1528" workbookViewId="0">
-      <selection activeCell="D1559" sqref="D1559"/>
+    <sheetView topLeftCell="A402" workbookViewId="0">
+      <selection activeCell="H428" sqref="H428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51628,8 +51628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B05C6A-0A8A-4B54-9B2C-EE3DFC030825}">
   <dimension ref="A1:C1039"/>
   <sheetViews>
-    <sheetView topLeftCell="A873" workbookViewId="0">
-      <selection activeCell="B881" sqref="B881"/>
+    <sheetView tabSelected="1" topLeftCell="A500" workbookViewId="0">
+      <selection activeCell="C529" sqref="C529"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Defaults/p10-2024.xlsx
+++ b/Defaults/p10-2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya.shatalov\Desktop\Data\GIS\Toolboxex\Defaults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A269B6C-8814-442B-B75B-E1C432823BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE636E8-98B4-4BC3-9F7F-E8531152E668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Общий" sheetId="7" r:id="rId1"/>
@@ -8839,8 +8839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F99B37A-B714-4679-B3FC-AE5B06855E12}">
   <dimension ref="A1:J1581"/>
   <sheetViews>
-    <sheetView topLeftCell="A402" workbookViewId="0">
-      <selection activeCell="H428" sqref="H428"/>
+    <sheetView tabSelected="1" topLeftCell="A628" workbookViewId="0">
+      <selection activeCell="B669" sqref="B669"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24719,7 +24719,7 @@
         <v>192</v>
       </c>
       <c r="B668" t="s">
-        <v>2124</v>
+        <v>1</v>
       </c>
       <c r="C668" t="s">
         <v>1377</v>
@@ -51628,8 +51628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B05C6A-0A8A-4B54-9B2C-EE3DFC030825}">
   <dimension ref="A1:C1039"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A500" workbookViewId="0">
-      <selection activeCell="C529" sqref="C529"/>
+    <sheetView topLeftCell="A500" workbookViewId="0">
+      <selection activeCell="C513" sqref="C513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Defaults/p10-2024.xlsx
+++ b/Defaults/p10-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ya.shatalov\Desktop\Data\GIS\Toolboxex\Defaults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE636E8-98B4-4BC3-9F7F-E8531152E668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66928C1C-BBD6-43BD-9546-47710F26EC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8839,8 +8839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F99B37A-B714-4679-B3FC-AE5B06855E12}">
   <dimension ref="A1:J1581"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A628" workbookViewId="0">
-      <selection activeCell="B669" sqref="B669"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="F291" sqref="F291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
